--- a/Tableau_SCRUM.xlsx
+++ b/Tableau_SCRUM.xlsx
@@ -12,6 +12,8 @@
     <sheet name="SPRINT BACKLOG" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="BURNDOWN CHART" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Sprint 1 " sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sprint 2" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Sprint 3" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="95">
   <si>
     <t xml:space="preserve">PRODUCT  BACKLOG – Création site B3D</t>
   </si>
@@ -198,16 +200,10 @@
     <t xml:space="preserve">Jeu 6 dec.</t>
   </si>
   <si>
-    <t xml:space="preserve">Jeu 13 dec.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeu 20 dec.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeu 3 janv.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeu 10 janv.</t>
+    <t xml:space="preserve">Mer 12 dec.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mer 19 dec.</t>
   </si>
   <si>
     <t xml:space="preserve">Trajectoire idéale</t>
@@ -217,6 +213,86 @@
   </si>
   <si>
     <t xml:space="preserve">1er</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ACCUEIL
++ PRESENTATION PRODUITS
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Design et mise en forme des pages
+Respect de la charte graphique
+Flat design &amp; Effets parallaxe
+Site statique (</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2 pages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)
+Page d’accueil
++
+Page de présentation des 3 produits</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Création charte graphique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maquette fonctionnelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maquette fonctionnelle tablette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maquette fonctionnelle mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maquette graphique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">étude et prise en main des effets parallaxe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intégration du menu + logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intégration footer + contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3ème</t>
   </si>
   <si>
     <t xml:space="preserve">Design et mise en forme page d'accueil
@@ -224,21 +300,79 @@
 Flat design &amp; Effets parallaxe</t>
   </si>
   <si>
-    <t xml:space="preserve">Création charte graphique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Création logo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maquettage</t>
+    <t xml:space="preserve">Intégration – page accueil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intégration – page société</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intégration – page produits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intégration de photos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test sprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL SPRINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ème</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">DETAILS PRODUITS
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Design et mise en forme des pages
+Respect de la charte graphique
+Flat design &amp; Effets parallaxe
+Site statique (</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3 pages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)
+Pages de détails pour chaques produits</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Maquette fonctionnelle – tablette</t>
   </si>
   <si>
     <t xml:space="preserve">Intégration - ergonomie et responsive design</t>
   </si>
   <si>
-    <t xml:space="preserve">étude et prise en main des effets parallaxe</t>
-  </si>
-  <si>
     <t xml:space="preserve">intégration du logo</t>
   </si>
   <si>
@@ -248,28 +382,236 @@
     <t xml:space="preserve">intégration footer de contact</t>
   </si>
   <si>
-    <t xml:space="preserve">intégration de photos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test sprint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL SPRINT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2ème</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formulaires de contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">définition des champs et maquettage des formulaires de contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intégration formulaire de contact</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">FORMULAIRE DE CONTACT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Design et mise en forme des pages
+Respect de la charte graphique
+Flat design &amp; Effets parallaxe
+Site statique (</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)
+Page de contact</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Burdown Chart - Refonte du site www.corrtech.fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeu 13 dec.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeu 20 dec.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeu 3 janv.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeu 10 janv.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ACCUEIL
++ PRESENTATION PRODUITS
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Design et mise en forme des pages
+Respect de la charte graphique
+Flat design &amp; Effets parallaxe
+Site statique (</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2 pages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)
+Page d’accueil
++
+Page de présentation des 3 produits</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">DETAILS PRODUITS
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Design et mise en forme des pages
+Respect de la charte graphique
+Flat design &amp; Effets parallaxe
+Site statique (</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3 pages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)
+Pages de détails pour chaques produits</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">FORMULAIRE DE CONTACT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Design et mise en forme des pages
+Respect de la charte graphique
+Flat design &amp; Effets parallaxe
+Site statique (</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)
+Page de contact</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -280,7 +622,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -410,6 +752,21 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FFCE181E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="18"/>
       <color rgb="FF3D85C6"/>
@@ -499,7 +856,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBA131A"/>
-        <bgColor rgb="FFCC0000"/>
+        <bgColor rgb="FFCE181E"/>
       </patternFill>
     </fill>
     <fill>
@@ -509,7 +866,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -615,6 +972,62 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -641,7 +1054,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="87">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -814,8 +1227,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -826,6 +1239,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -854,8 +1271,28 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -878,47 +1315,35 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -930,12 +1355,52 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -966,7 +1431,7 @@
       <rgbColor rgb="FFB7B7B7"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF6FA8DC"/>
-      <rgbColor rgb="FFDC3912"/>
+      <rgbColor rgb="FFCE181E"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
@@ -1002,7 +1467,7 @@
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FFBA131A"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFDC3912"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
@@ -1021,10 +1486,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.133984434610102"/>
-          <c:y val="0.19641401792991"/>
-          <c:w val="0.737372195940791"/>
-          <c:h val="0.672371638141809"/>
+          <c:x val="0.134025339642803"/>
+          <c:y val="0.196494088870771"/>
+          <c:w val="0.737215692260724"/>
+          <c:h val="0.672136159804321"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1046,9 +1511,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ff420e">
-                <a:alpha val="40000"/>
-              </a:srgbClr>
+              <a:srgbClr val="ff420e"/>
             </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
@@ -1067,14 +1530,17 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
             </c:dLbl>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1241,12 +1707,14 @@
             <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
             </c:dLbl>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1383,11 +1851,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="90996557"/>
-        <c:axId val="63826801"/>
+        <c:axId val="32717434"/>
+        <c:axId val="52970127"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90996557"/>
+        <c:axId val="32717434"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1435,14 +1903,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63826801"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="52970127"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63826801"/>
+        <c:axId val="52970127"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1486,7 +1954,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90996557"/>
+        <c:crossAx val="32717434"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1498,6 +1966,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
+      <c:legendPos val="r"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
@@ -1508,6 +1977,7 @@
           <c:h val="0.0608190709046455"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1624,10 +2094,10 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1741,11 +2211,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="85738923"/>
-        <c:axId val="31718919"/>
+        <c:axId val="63565614"/>
+        <c:axId val="29153844"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85738923"/>
+        <c:axId val="63565614"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1771,14 +2241,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31718919"/>
+        <c:crossAx val="29153844"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="31718919"/>
+        <c:axId val="29153844"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1813,7 +2283,645 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85738923"/>
+        <c:crossAx val="63565614"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 2'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="3366cc"/>
+            </a:solidFill>
+            <a:ln w="19080">
+              <a:solidFill>
+                <a:srgbClr val="3366cc"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="3366cc"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint 2'!$C$8:$G$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Jours d'itération</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jeu 6 dec.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jeu 13 dec.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jeu 20 dec.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jeu 3 janv.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 2'!$C$9:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 2'!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="dc3912"/>
+            </a:solidFill>
+            <a:ln w="19080">
+              <a:solidFill>
+                <a:srgbClr val="dc3912"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="dc3912"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint 2'!$C$8:$G$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Jours d'itération</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jeu 6 dec.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jeu 13 dec.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jeu 20 dec.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jeu 3 janv.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 2'!$C$10:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="88998366"/>
+        <c:axId val="12017959"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="88998366"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="12017959"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="12017959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b7b7b7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47520">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="88998366"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 3'!$B$9:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="3366cc"/>
+            </a:solidFill>
+            <a:ln w="19080">
+              <a:solidFill>
+                <a:srgbClr val="3366cc"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="3366cc"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint 3'!$C$8:$G$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Jours d'itération</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jeu 6 dec.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jeu 13 dec.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jeu 20 dec.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jeu 3 janv.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 3'!$C$9:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 3'!$B$10:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="dc3912"/>
+            </a:solidFill>
+            <a:ln w="19080">
+              <a:solidFill>
+                <a:srgbClr val="dc3912"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="dc3912"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint 3'!$C$8:$G$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Jours d'itération</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jeu 6 dec.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jeu 13 dec.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jeu 20 dec.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jeu 3 janv.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 3'!$C$10:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="17407024"/>
+        <c:axId val="76729517"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="17407024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="76729517"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="76729517"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b7b7b7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47520">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="17407024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1868,9 +2976,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>917280</xdr:colOff>
+      <xdr:colOff>915480</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>207360</xdr:rowOff>
+      <xdr:rowOff>205560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1879,7 +2987,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1718280" y="3404520"/>
-        <a:ext cx="4718160" cy="3533760"/>
+        <a:ext cx="4716360" cy="3531960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1903,9 +3011,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>75240</xdr:rowOff>
+      <xdr:colOff>76680</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>297720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1913,8 +3021,78 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13460400" y="1436040"/>
-        <a:ext cx="4095000" cy="2800080"/>
+        <a:off x="13459680" y="1436040"/>
+        <a:ext cx="4093920" cy="5616000"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>54360</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>124920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>77400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="13459680" y="1436040"/>
+        <a:ext cx="4094640" cy="3318480"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>54360</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>124920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76320</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>186480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="13459680" y="1436040"/>
+        <a:ext cx="4093560" cy="3395880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1934,9 +3112,9 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -3285,20 +4463,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1048576"/>
+  <dimension ref="A1:AMJ52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="9" topLeftCell="D25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="70.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="1" width="16.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1012" min="9" style="1" width="14.43"/>
@@ -3417,37 +4593,33 @@
       <c r="F8" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>59</v>
-      </c>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="36"/>
       <c r="B9" s="37"/>
       <c r="C9" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="41" t="n">
-        <f aca="false">SUM(D11:D19,D23:D24)</f>
-        <v>30</v>
+        <v>58</v>
+      </c>
+      <c r="D9" s="41" t="e">
+        <f aca="false">SUM(D40:D43,#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="E9" s="41" t="n">
-        <f aca="false">SUM(E11:E19)</f>
+        <f aca="false">SUM(E11:E14)</f>
+        <v>8</v>
+      </c>
+      <c r="F9" s="41" t="n">
+        <f aca="false">SUM(F11:F14)</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="41" t="n">
+        <f aca="false">SUM(G11:G14)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="41" t="n">
-        <f aca="false">SUM(F11:F19)</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="41" t="n">
-        <f aca="false">SUM(G11:G19)</f>
-        <v>0</v>
-      </c>
       <c r="H9" s="41" t="n">
-        <f aca="false">SUM(H11:H19)</f>
+        <f aca="false">SUM(H11:H14)</f>
         <v>0</v>
       </c>
     </row>
@@ -3455,7 +4627,7 @@
       <c r="A10" s="36"/>
       <c r="B10" s="37"/>
       <c r="C10" s="39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" s="41"/>
       <c r="E10" s="41"/>
@@ -3466,1211 +4638,710 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>64</v>
-      </c>
       <c r="D11" s="45" t="n">
-        <v>4</v>
-      </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-    </row>
-    <row r="12" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+      <c r="E11" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="42"/>
       <c r="B12" s="42"/>
       <c r="C12" s="44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D12" s="45" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
+        <v>10</v>
+      </c>
+      <c r="E12" s="45" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" s="45" t="n">
+        <v>1</v>
+      </c>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="42"/>
       <c r="B13" s="42"/>
       <c r="C13" s="44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D13" s="45" t="n">
         <v>6</v>
       </c>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
+      <c r="E13" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="45" t="n">
+        <v>0</v>
+      </c>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="46" t="s">
-        <v>67</v>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44" t="s">
+        <v>65</v>
       </c>
       <c r="D14" s="45" t="n">
-        <v>4</v>
-      </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
+        <v>2</v>
+      </c>
+      <c r="E14" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="45" t="n">
+        <v>0</v>
+      </c>
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="42"/>
       <c r="B15" s="42"/>
       <c r="C15" s="44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D15" s="45" t="n">
-        <v>4</v>
-      </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
+        <v>2</v>
+      </c>
+      <c r="E15" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="45" t="n">
+        <v>0</v>
+      </c>
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="42"/>
       <c r="B16" s="42"/>
-      <c r="C16" s="47" t="s">
-        <v>69</v>
+      <c r="C16" s="44" t="s">
+        <v>67</v>
       </c>
       <c r="D16" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
+        <v>12</v>
+      </c>
+      <c r="E16" s="45" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" s="45" t="n">
+        <v>0</v>
+      </c>
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
-    </row>
-    <row r="17" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+    </row>
+    <row r="17" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="42"/>
       <c r="B17" s="42"/>
-      <c r="C17" s="46" t="s">
-        <v>70</v>
+      <c r="C17" s="44" t="s">
+        <v>68</v>
       </c>
       <c r="D17" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
+        <v>4</v>
+      </c>
+      <c r="E17" s="45" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" s="45" t="n">
+        <v>4</v>
+      </c>
       <c r="G17" s="45"/>
       <c r="H17" s="45"/>
     </row>
-    <row r="18" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="47" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D18" s="45" t="n">
-        <v>2</v>
-      </c>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="45" t="n">
+        <v>0</v>
+      </c>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="49" t="n">
+        <v>70</v>
+      </c>
+      <c r="D19" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
+      <c r="F19" s="45" t="n">
+        <v>2</v>
+      </c>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="42"/>
-      <c r="B20" s="50" t="s">
+    <row r="20" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-    </row>
-    <row r="21" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="42"/>
-      <c r="B21" s="51" t="s">
+      <c r="D20" s="45" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+    </row>
+    <row r="21" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="52" t="n">
-        <f aca="false">SUM(D11:D20)</f>
-        <v>27</v>
-      </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-    </row>
-    <row r="22" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="54"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="58"/>
-    </row>
-    <row r="23" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="45" t="s">
+      <c r="D21" s="45" t="n">
+        <v>8</v>
+      </c>
+      <c r="E21" s="45" t="n">
+        <v>8</v>
+      </c>
+      <c r="F21" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+    </row>
+    <row r="22" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="D22" s="45" t="n">
+        <v>8</v>
+      </c>
+      <c r="E22" s="45" t="n">
+        <v>8</v>
+      </c>
+      <c r="F22" s="45" t="n">
+        <v>8</v>
+      </c>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+    </row>
+    <row r="23" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="45" t="n">
+      <c r="D23" s="50" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
+      <c r="E23" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="45" t="n">
+        <v>1</v>
+      </c>
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
-    </row>
-    <row r="24" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="45"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="44" t="s">
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+    </row>
+    <row r="24" customFormat="false" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="42"/>
+      <c r="B24" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+    </row>
+    <row r="25" customFormat="false" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="42"/>
+      <c r="B25" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="45" t="n">
+      <c r="C25" s="53" t="n">
+        <f aca="false">SUM(D11:D24)</f>
+        <v>62</v>
+      </c>
+      <c r="D25" s="52" t="n">
+        <f aca="false">SUM(D11:D23)</f>
+        <v>62</v>
+      </c>
+      <c r="E25" s="45" t="n">
+        <f aca="false">SUM(E11:E23)</f>
+        <v>37</v>
+      </c>
+      <c r="F25" s="45" t="n">
+        <f aca="false">SUM(F14:F23)</f>
+        <v>17</v>
+      </c>
+      <c r="G25" s="45" t="n">
+        <f aca="false">SUM(G14:G23)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="45" t="n">
+        <f aca="false">SUM(H14:H23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="54"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+    </row>
+    <row r="27" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="45" t="n">
+        <v>6</v>
+      </c>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+    </row>
+    <row r="28" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="45" t="n">
+        <v>4</v>
+      </c>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+    </row>
+    <row r="29" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="45" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+    </row>
+    <row r="30" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="45" t="n">
+        <v>8</v>
+      </c>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+    </row>
+    <row r="31" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="45" t="n">
+        <v>8</v>
+      </c>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+    </row>
+    <row r="32" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="45" t="n">
+        <v>4</v>
+      </c>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+    </row>
+    <row r="33" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+    </row>
+    <row r="34" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+    </row>
+    <row r="35" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="45" t="n">
         <v>2</v>
       </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-    </row>
-    <row r="25" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="45"/>
-      <c r="B25" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-    </row>
-    <row r="26" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="45"/>
-      <c r="B26" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="52" t="n">
-        <f aca="false">SUM(D23:D25)</f>
-        <v>3</v>
-      </c>
-      <c r="D26" s="51"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-    </row>
-    <row r="27" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="54"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="58"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+    </row>
+    <row r="36" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+    </row>
+    <row r="37" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="42"/>
+      <c r="B37" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+    </row>
+    <row r="38" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="42"/>
+      <c r="B38" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="53" t="n">
+        <f aca="false">SUM(D27:D37)</f>
+        <v>39</v>
+      </c>
+      <c r="D38" s="52"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+    </row>
+    <row r="39" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="54"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+    </row>
+    <row r="40" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="45" t="n">
+        <v>6</v>
+      </c>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+    </row>
+    <row r="41" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="45" t="n">
+        <v>4</v>
+      </c>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+    </row>
+    <row r="42" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="42"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="45" t="n">
+        <v>4</v>
+      </c>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+    </row>
+    <row r="43" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="45" t="n">
+        <v>8</v>
+      </c>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+    </row>
+    <row r="44" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="45" t="n">
+        <v>8</v>
+      </c>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+    </row>
+    <row r="45" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="45" t="n">
+        <v>4</v>
+      </c>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+    </row>
+    <row r="46" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+    </row>
+    <row r="47" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+    </row>
+    <row r="48" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+    </row>
+    <row r="49" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+    </row>
+    <row r="50" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="42"/>
+      <c r="B50" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+    </row>
+    <row r="51" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="42"/>
+      <c r="B51" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="53" t="n">
+        <f aca="false">SUM(D40:D50)</f>
+        <v>39</v>
+      </c>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="60"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="64"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A11:A21"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A11:A25"/>
+    <mergeCell ref="B11:B23"/>
+    <mergeCell ref="A27:A38"/>
+    <mergeCell ref="B27:B36"/>
+    <mergeCell ref="A40:A51"/>
+    <mergeCell ref="B40:B49"/>
   </mergeCells>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4689,105 +5360,105 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="62" width="23.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="62" width="13.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="65" width="23.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="65" width="13.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="7" style="0" width="13.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="62" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="65" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="63"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66" t="s">
-        <v>79</v>
+      <c r="A1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="69" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="70"/>
     </row>
     <row r="4" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="64"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="70"/>
     </row>
     <row r="5" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="70" t="s">
+      <c r="C7" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="73" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="70" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="71" t="n">
+      <c r="B8" s="74" t="n">
         <f aca="false">SUM(B10:B18,B22:B23)</f>
         <v>0</v>
       </c>
-      <c r="C8" s="71" t="n">
+      <c r="C8" s="74" t="n">
         <f aca="false">SUM(C10:C18)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="71" t="n">
+      <c r="D8" s="74" t="n">
         <f aca="false">SUM(D10:D18)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="71" t="n">
+      <c r="E8" s="74" t="n">
         <f aca="false">SUM(E10:E18)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="71" t="n">
+      <c r="F8" s="74" t="n">
         <f aca="false">SUM(F10:F18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71" t="e">
+      <c r="A9" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74" t="e">
         <f aca="false">SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -4828,12 +5499,545 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:AMJ25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="0" topLeftCell="D4" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topRight" activeCell="A11" activeCellId="0" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="50.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="14.43"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" customFormat="false" ht="20.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="75"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="77"/>
+      <c r="T7" s="78"/>
+    </row>
+    <row r="8" customFormat="false" ht="20.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="79"/>
+    </row>
+    <row r="9" customFormat="false" ht="20.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="41" t="e">
+        <f aca="false">SUM(D11:D24,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E9" s="41" t="n">
+        <f aca="false">SUM(E11:E24)</f>
+        <v>10</v>
+      </c>
+      <c r="F9" s="41" t="n">
+        <f aca="false">SUM(F11:F24)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="41" t="n">
+        <f aca="false">SUM(G11:G24)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="41" t="n">
+        <f aca="false">SUM(H11:H24)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="80"/>
+      <c r="T9" s="79"/>
+    </row>
+    <row r="10" customFormat="false" ht="20.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41" t="e">
+        <f aca="false">SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q10" s="80"/>
+      <c r="T10" s="79"/>
+    </row>
+    <row r="11" s="1" customFormat="true" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="45" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="Q11" s="82"/>
+      <c r="T11" s="83"/>
+      <c r="AMF11" s="0"/>
+      <c r="AMG11" s="0"/>
+      <c r="AMH11" s="0"/>
+      <c r="AMI11" s="0"/>
+      <c r="AMJ11" s="0"/>
+    </row>
+    <row r="12" s="1" customFormat="true" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="45" t="n">
+        <v>8</v>
+      </c>
+      <c r="E12" s="45" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="Q12" s="82"/>
+      <c r="T12" s="83"/>
+      <c r="AMF12" s="0"/>
+      <c r="AMG12" s="0"/>
+      <c r="AMH12" s="0"/>
+      <c r="AMI12" s="0"/>
+      <c r="AMJ12" s="0"/>
+    </row>
+    <row r="13" s="1" customFormat="true" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="45" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" s="45" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="Q13" s="82"/>
+      <c r="T13" s="83"/>
+      <c r="AMF13" s="0"/>
+      <c r="AMG13" s="0"/>
+      <c r="AMH13" s="0"/>
+      <c r="AMI13" s="0"/>
+      <c r="AMJ13" s="0"/>
+    </row>
+    <row r="14" s="1" customFormat="true" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="42"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="45" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="Q14" s="82"/>
+      <c r="T14" s="83"/>
+      <c r="AMF14" s="0"/>
+      <c r="AMG14" s="0"/>
+      <c r="AMH14" s="0"/>
+      <c r="AMI14" s="0"/>
+      <c r="AMJ14" s="0"/>
+    </row>
+    <row r="15" s="1" customFormat="true" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="45" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="Q15" s="82"/>
+      <c r="T15" s="83"/>
+      <c r="AMF15" s="0"/>
+      <c r="AMG15" s="0"/>
+      <c r="AMH15" s="0"/>
+      <c r="AMI15" s="0"/>
+      <c r="AMJ15" s="0"/>
+    </row>
+    <row r="16" s="1" customFormat="true" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="45" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="Q16" s="82"/>
+      <c r="T16" s="83"/>
+      <c r="AMF16" s="0"/>
+      <c r="AMG16" s="0"/>
+      <c r="AMH16" s="0"/>
+      <c r="AMI16" s="0"/>
+      <c r="AMJ16" s="0"/>
+    </row>
+    <row r="17" s="1" customFormat="true" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="45" t="n">
+        <v>8</v>
+      </c>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="Q17" s="82"/>
+      <c r="T17" s="83"/>
+      <c r="AMF17" s="0"/>
+      <c r="AMG17" s="0"/>
+      <c r="AMH17" s="0"/>
+      <c r="AMI17" s="0"/>
+      <c r="AMJ17" s="0"/>
+    </row>
+    <row r="18" s="1" customFormat="true" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="45" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="Q18" s="82"/>
+      <c r="T18" s="83"/>
+      <c r="AMF18" s="0"/>
+      <c r="AMG18" s="0"/>
+      <c r="AMH18" s="0"/>
+      <c r="AMI18" s="0"/>
+      <c r="AMJ18" s="0"/>
+    </row>
+    <row r="19" s="1" customFormat="true" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="Q19" s="82"/>
+      <c r="T19" s="83"/>
+      <c r="AMF19" s="0"/>
+      <c r="AMG19" s="0"/>
+      <c r="AMH19" s="0"/>
+      <c r="AMI19" s="0"/>
+      <c r="AMJ19" s="0"/>
+    </row>
+    <row r="20" s="1" customFormat="true" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="Q20" s="82"/>
+      <c r="T20" s="83"/>
+      <c r="AMF20" s="0"/>
+      <c r="AMG20" s="0"/>
+      <c r="AMH20" s="0"/>
+      <c r="AMI20" s="0"/>
+      <c r="AMJ20" s="0"/>
+    </row>
+    <row r="21" s="1" customFormat="true" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="Q21" s="82"/>
+      <c r="T21" s="83"/>
+      <c r="AMF21" s="0"/>
+      <c r="AMG21" s="0"/>
+      <c r="AMH21" s="0"/>
+      <c r="AMI21" s="0"/>
+      <c r="AMJ21" s="0"/>
+    </row>
+    <row r="22" s="1" customFormat="true" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="Q22" s="82"/>
+      <c r="T22" s="83"/>
+      <c r="AMF22" s="0"/>
+      <c r="AMG22" s="0"/>
+      <c r="AMH22" s="0"/>
+      <c r="AMI22" s="0"/>
+      <c r="AMJ22" s="0"/>
+    </row>
+    <row r="23" s="1" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="42"/>
+      <c r="B23" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="Q23" s="82"/>
+      <c r="T23" s="83"/>
+      <c r="AMF23" s="0"/>
+      <c r="AMG23" s="0"/>
+      <c r="AMH23" s="0"/>
+      <c r="AMI23" s="0"/>
+      <c r="AMJ23" s="0"/>
+    </row>
+    <row r="24" s="1" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="42"/>
+      <c r="B24" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="53" t="n">
+        <f aca="false">SUM(D11:D23)</f>
+        <v>51</v>
+      </c>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="Q24" s="84"/>
+      <c r="R24" s="85"/>
+      <c r="S24" s="85"/>
+      <c r="T24" s="86"/>
+      <c r="AMF24" s="0"/>
+      <c r="AMG24" s="0"/>
+      <c r="AMH24" s="0"/>
+      <c r="AMI24" s="0"/>
+      <c r="AMJ24" s="0"/>
+    </row>
+    <row r="25" s="1" customFormat="true" ht="8.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="60"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="64"/>
+      <c r="AMF25" s="0"/>
+      <c r="AMG25" s="0"/>
+      <c r="AMH25" s="0"/>
+      <c r="AMI25" s="0"/>
+      <c r="AMJ25" s="0"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="A11:A24"/>
+    <mergeCell ref="B11:B22"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topRight" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4929,7 +6133,7 @@
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
-      <c r="I7" s="72"/>
+      <c r="I7" s="75"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="36"/>
@@ -4941,42 +6145,42 @@
         <v>55</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="36"/>
       <c r="B9" s="37"/>
       <c r="C9" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="41" t="n">
-        <f aca="false">SUM(D11:D19,D23:D24)</f>
-        <v>27</v>
+        <v>58</v>
+      </c>
+      <c r="D9" s="41" t="e">
+        <f aca="false">SUM(D11:D14,#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="E9" s="41" t="n">
-        <f aca="false">SUM(E11:E19)</f>
+        <f aca="false">SUM(E11:E14)</f>
         <v>0</v>
       </c>
       <c r="F9" s="41" t="n">
-        <f aca="false">SUM(F11:F19)</f>
+        <f aca="false">SUM(F11:F14)</f>
         <v>0</v>
       </c>
       <c r="G9" s="41" t="n">
-        <f aca="false">SUM(G11:G19)</f>
+        <f aca="false">SUM(G11:G14)</f>
         <v>0</v>
       </c>
       <c r="H9" s="41" t="n">
-        <f aca="false">SUM(H11:H19)</f>
+        <f aca="false">SUM(H11:H14)</f>
         <v>0</v>
       </c>
     </row>
@@ -4984,7 +6188,7 @@
       <c r="A10" s="36"/>
       <c r="B10" s="37"/>
       <c r="C10" s="39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" s="41"/>
       <c r="E10" s="41"/>
@@ -4995,29 +6199,38 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>63</v>
+    <row r="11" s="1" customFormat="true" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="81" t="s">
+        <v>93</v>
       </c>
       <c r="C11" s="44" t="s">
         <v>64</v>
       </c>
       <c r="D11" s="45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E11" s="45"/>
       <c r="F11" s="45"/>
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="73"/>
-      <c r="B12" s="73"/>
+      <c r="AMF11" s="0"/>
+      <c r="AMG11" s="0"/>
+      <c r="AMH11" s="0"/>
+      <c r="AMI11" s="0"/>
+      <c r="AMJ11" s="0"/>
+    </row>
+    <row r="12" s="1" customFormat="true" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="81" t="s">
+        <v>72</v>
+      </c>
       <c r="C12" s="44" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D12" s="45" t="n">
         <v>4</v>
@@ -5026,68 +6239,97 @@
       <c r="F12" s="45"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="73"/>
-      <c r="B13" s="73"/>
+      <c r="AMF12" s="0"/>
+      <c r="AMG12" s="0"/>
+      <c r="AMH12" s="0"/>
+      <c r="AMI12" s="0"/>
+      <c r="AMJ12" s="0"/>
+    </row>
+    <row r="13" s="1" customFormat="true" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="44" t="s">
         <v>66</v>
       </c>
       <c r="D13" s="45" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13" s="45"/>
       <c r="F13" s="45"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="73"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="46" t="s">
+      <c r="AMF13" s="0"/>
+      <c r="AMG13" s="0"/>
+      <c r="AMH13" s="0"/>
+      <c r="AMI13" s="0"/>
+      <c r="AMJ13" s="0"/>
+    </row>
+    <row r="14" s="1" customFormat="true" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="44" t="s">
         <v>67</v>
       </c>
       <c r="D14" s="45" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E14" s="45"/>
       <c r="F14" s="45"/>
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="73"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="44" t="s">
-        <v>68</v>
+      <c r="AMF14" s="0"/>
+      <c r="AMG14" s="0"/>
+      <c r="AMH14" s="0"/>
+      <c r="AMI14" s="0"/>
+      <c r="AMJ14" s="0"/>
+    </row>
+    <row r="15" s="1" customFormat="true" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>82</v>
       </c>
       <c r="D15" s="45" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="45"/>
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="73"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="47" t="s">
-        <v>69</v>
+      <c r="AMF15" s="0"/>
+      <c r="AMG15" s="0"/>
+      <c r="AMH15" s="0"/>
+      <c r="AMI15" s="0"/>
+      <c r="AMJ15" s="0"/>
+    </row>
+    <row r="16" s="1" customFormat="true" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="44" t="s">
+        <v>68</v>
       </c>
       <c r="D16" s="45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E16" s="45"/>
       <c r="F16" s="45"/>
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="73"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="46" t="s">
-        <v>70</v>
+      <c r="AMF16" s="0"/>
+      <c r="AMG16" s="0"/>
+      <c r="AMH16" s="0"/>
+      <c r="AMI16" s="0"/>
+      <c r="AMJ16" s="0"/>
+    </row>
+    <row r="17" s="1" customFormat="true" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="48" t="s">
+        <v>83</v>
       </c>
       <c r="D17" s="45" t="n">
         <v>1</v>
@@ -5096,74 +6338,601 @@
       <c r="F17" s="45"/>
       <c r="G17" s="45"/>
       <c r="H17" s="45"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="73"/>
-      <c r="B18" s="73"/>
+      <c r="AMF17" s="0"/>
+      <c r="AMG17" s="0"/>
+      <c r="AMH17" s="0"/>
+      <c r="AMI17" s="0"/>
+      <c r="AMJ17" s="0"/>
+    </row>
+    <row r="18" s="1" customFormat="true" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="47" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D18" s="45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="45"/>
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="73"/>
-      <c r="B19" s="73"/>
+      <c r="AMF18" s="0"/>
+      <c r="AMG18" s="0"/>
+      <c r="AMH18" s="0"/>
+      <c r="AMI18" s="0"/>
+      <c r="AMJ18" s="0"/>
+    </row>
+    <row r="19" s="1" customFormat="true" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="49" t="n">
-        <v>1</v>
+        <v>85</v>
+      </c>
+      <c r="D19" s="45" t="n">
+        <v>2</v>
       </c>
       <c r="E19" s="45"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="73"/>
-      <c r="B20" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="73"/>
+      <c r="AMF19" s="0"/>
+      <c r="AMG19" s="0"/>
+      <c r="AMH19" s="0"/>
+      <c r="AMI19" s="0"/>
+      <c r="AMJ19" s="0"/>
+    </row>
+    <row r="20" s="1" customFormat="true" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="AMF20" s="0"/>
+      <c r="AMG20" s="0"/>
+      <c r="AMH20" s="0"/>
+      <c r="AMI20" s="0"/>
+      <c r="AMJ20" s="0"/>
+    </row>
+    <row r="21" s="1" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="42"/>
       <c r="B21" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="52" t="n">
-        <f aca="false">SUM(D11:D20)</f>
-        <v>27</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C21" s="51"/>
       <c r="D21" s="51"/>
       <c r="E21" s="51"/>
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
       <c r="H21" s="51"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="AMF21" s="0"/>
+      <c r="AMG21" s="0"/>
+      <c r="AMH21" s="0"/>
+      <c r="AMI21" s="0"/>
+      <c r="AMJ21" s="0"/>
+    </row>
+    <row r="22" s="1" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="42"/>
+      <c r="B22" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="53" t="n">
+        <f aca="false">SUM(D11:D21)</f>
+        <v>39</v>
+      </c>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="AMF22" s="0"/>
+      <c r="AMG22" s="0"/>
+      <c r="AMH22" s="0"/>
+      <c r="AMI22" s="0"/>
+      <c r="AMJ22" s="0"/>
+    </row>
+    <row r="23" s="1" customFormat="true" ht="8.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="60"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="64"/>
+      <c r="AMF23" s="0"/>
+      <c r="AMG23" s="0"/>
+      <c r="AMH23" s="0"/>
+      <c r="AMI23" s="0"/>
+      <c r="AMJ23" s="0"/>
+    </row>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A11:A21"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A11:A22"/>
+    <mergeCell ref="B11:B20"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="C4" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topRight" activeCell="A11" activeCellId="0" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="50.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="14.43"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="75"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="41" t="e">
+        <f aca="false">SUM(D11:D15,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E9" s="41" t="n">
+        <f aca="false">SUM(E11:E15)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="41" t="n">
+        <f aca="false">SUM(F11:F15)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="41" t="n">
+        <f aca="false">SUM(G11:G15)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="41" t="n">
+        <f aca="false">SUM(H11:H15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41" t="e">
+        <f aca="false">SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="true" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="45" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="AMF11" s="0"/>
+      <c r="AMG11" s="0"/>
+      <c r="AMH11" s="0"/>
+      <c r="AMI11" s="0"/>
+      <c r="AMJ11" s="0"/>
+    </row>
+    <row r="12" s="1" customFormat="true" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="45" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="AMF12" s="0"/>
+      <c r="AMG12" s="0"/>
+      <c r="AMH12" s="0"/>
+      <c r="AMI12" s="0"/>
+      <c r="AMJ12" s="0"/>
+    </row>
+    <row r="13" s="1" customFormat="true" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="45" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="AMF13" s="0"/>
+      <c r="AMG13" s="0"/>
+      <c r="AMH13" s="0"/>
+      <c r="AMI13" s="0"/>
+      <c r="AMJ13" s="0"/>
+    </row>
+    <row r="14" s="1" customFormat="true" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="45" t="n">
+        <v>8</v>
+      </c>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="AMF14" s="0"/>
+      <c r="AMG14" s="0"/>
+      <c r="AMH14" s="0"/>
+      <c r="AMI14" s="0"/>
+      <c r="AMJ14" s="0"/>
+    </row>
+    <row r="15" s="1" customFormat="true" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="45" t="n">
+        <v>8</v>
+      </c>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="AMF15" s="0"/>
+      <c r="AMG15" s="0"/>
+      <c r="AMH15" s="0"/>
+      <c r="AMI15" s="0"/>
+      <c r="AMJ15" s="0"/>
+    </row>
+    <row r="16" s="1" customFormat="true" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="45" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="AMF16" s="0"/>
+      <c r="AMG16" s="0"/>
+      <c r="AMH16" s="0"/>
+      <c r="AMI16" s="0"/>
+      <c r="AMJ16" s="0"/>
+    </row>
+    <row r="17" s="1" customFormat="true" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="AMF17" s="0"/>
+      <c r="AMG17" s="0"/>
+      <c r="AMH17" s="0"/>
+      <c r="AMI17" s="0"/>
+      <c r="AMJ17" s="0"/>
+    </row>
+    <row r="18" s="1" customFormat="true" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="AMF18" s="0"/>
+      <c r="AMG18" s="0"/>
+      <c r="AMH18" s="0"/>
+      <c r="AMI18" s="0"/>
+      <c r="AMJ18" s="0"/>
+    </row>
+    <row r="19" s="1" customFormat="true" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="AMF19" s="0"/>
+      <c r="AMG19" s="0"/>
+      <c r="AMH19" s="0"/>
+      <c r="AMI19" s="0"/>
+      <c r="AMJ19" s="0"/>
+    </row>
+    <row r="20" s="1" customFormat="true" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="AMF20" s="0"/>
+      <c r="AMG20" s="0"/>
+      <c r="AMH20" s="0"/>
+      <c r="AMI20" s="0"/>
+      <c r="AMJ20" s="0"/>
+    </row>
+    <row r="21" s="1" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="42"/>
+      <c r="B21" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="AMF21" s="0"/>
+      <c r="AMG21" s="0"/>
+      <c r="AMH21" s="0"/>
+      <c r="AMI21" s="0"/>
+      <c r="AMJ21" s="0"/>
+    </row>
+    <row r="22" s="1" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="42"/>
+      <c r="B22" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="53" t="n">
+        <f aca="false">SUM(D11:D21)</f>
+        <v>39</v>
+      </c>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="AMF22" s="0"/>
+      <c r="AMG22" s="0"/>
+      <c r="AMH22" s="0"/>
+      <c r="AMI22" s="0"/>
+      <c r="AMJ22" s="0"/>
+    </row>
+    <row r="23" s="1" customFormat="true" ht="8.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="60"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="64"/>
+      <c r="AMF23" s="0"/>
+      <c r="AMG23" s="0"/>
+      <c r="AMH23" s="0"/>
+      <c r="AMI23" s="0"/>
+      <c r="AMJ23" s="0"/>
+    </row>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A11:A22"/>
+    <mergeCell ref="B11:B20"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
